--- a/Print Room Flow.xlsx
+++ b/Print Room Flow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Team Solutions\Desktop\ROLO'S NOTES\gitfolder\TSD_SOPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52CA1F87-729C-4873-9508-A86B2A4ABBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A1B250-7516-4442-9F29-83A766623E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{324DEDB6-945A-4831-B0BB-8E26D2719763}"/>
   </bookViews>
@@ -4118,7 +4118,24 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> via Objet SOP</a:t>
+            <a:t> via </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HeyGears SOP</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -4400,7 +4417,29 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>**Nest via Formlabs SOP</a:t>
+            <a:t>**Nest via first available model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> printer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> SOP</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -6856,7 +6895,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>**Nest via Formlabs SOP</a:t>
+            <a:t>**Nest via HeyGears SOP</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -8525,9 +8564,24 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>**Print via Formlabs SOP</a:t>
+            <a:t>**Print via </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HeyGears SOP</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -9241,7 +9295,24 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>**Clean &amp; Cure solid via Formlabs SOP</a:t>
+            <a:t>**Clean &amp; Cure solid via </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HeyGears SOP</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -9896,7 +9967,24 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> via Objet SOP</a:t>
+            <a:t> via </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HeyGears SOP</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -10623,7 +10711,24 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> via Objet SOP</a:t>
+            <a:t> via </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HeyGears SOP</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -11266,7 +11371,35 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>**Print via Formlabs SOP</a:t>
+            <a:t>**Print via </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>via first available model printer </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> SOP</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -11982,7 +12115,35 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>**Clean &amp; Cure solid via Formlabs SOP</a:t>
+            <a:t>**Clean &amp; Cure solid via </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>via first available model printer </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> SOP</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -12626,7 +12787,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>**Nest via Cara SOP</a:t>
+            <a:t>**Nest via Formlabs SOP</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -12719,7 +12880,35 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>**Print via Cara SOP</a:t>
+            <a:t>**Print via </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Formlabs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> SOP</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -13491,7 +13680,35 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>**Clean &amp; Cure items via Cara SOP</a:t>
+            <a:t>**Clean &amp; Cure items via </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Formlabs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0D0D0D"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> SOP</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -14475,8 +14692,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB48" sqref="AB48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z59" sqref="Z59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
